--- a/tools/luban/Datas/Wheather.xlsx
+++ b/tools/luban/Datas/Wheather.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07929339-1EBD-4E4D-9C87-A944129D224A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF3DB6A-D95C-4188-84C5-5F319588BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雪天！有可能会被冻住！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,11 +88,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雨天！小心打滑。速度 -100。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RainyDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度 -100。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家有可能会被冻住。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HotWheather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒损失 1 生命。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +478,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -541,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -555,10 +567,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -569,23 +581,31 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>

--- a/tools/luban/Datas/Wheather.xlsx
+++ b/tools/luban/Datas/Wheather.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF3DB6A-D95C-4188-84C5-5F319588BADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9BEC5B-3AAB-44E4-8C8E-703A081AB220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>每秒损失 1 生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰伤害 -50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OceanWheather</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +490,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,10 +623,18 @@
     </row>
     <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>

--- a/tools/luban/Datas/Wheather.xlsx
+++ b/tools/luban/Datas/Wheather.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9BEC5B-3AAB-44E4-8C8E-703A081AB220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04343A9-A64A-4BF0-82D8-019DDC8D3605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,24 +104,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>每秒损失 1 生命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰伤害 -50%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OceanWheather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HotWheather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒损失 1 生命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰伤害 -50%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海洋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OceanWheather</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -490,19 +489,19 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,7 +520,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -540,7 +539,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -551,7 +550,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -570,7 +569,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -587,7 +586,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -604,7 +603,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -613,32 +612,32 @@
         <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -647,7 +646,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
